--- a/gre/excel/task.xlsx
+++ b/gre/excel/task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
   <si>
     <t>模块</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>类型</t>
+  </si>
+  <si>
+    <t>类型描述</t>
   </si>
   <si>
     <t>module</t>
@@ -49,6 +52,9 @@
   </si>
   <si>
     <t>好友</t>
+  </si>
+  <si>
+    <t>好友数量</t>
   </si>
   <si>
     <t>vip</t>
@@ -1025,19 +1031,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1053,30 +1059,33 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>10001</v>
@@ -1084,33 +1093,36 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>10002</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>10003</v>
@@ -1121,109 +1133,109 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>10004</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>10005</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>10006</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>10007</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>10008</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>10009</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1232,12 +1244,12 @@
         <v>10010</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1246,12 +1258,12 @@
         <v>10011</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1260,12 +1272,12 @@
         <v>10012</v>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1274,12 +1286,12 @@
         <v>10013</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1293,7 +1305,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1307,7 +1319,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1321,173 +1333,187 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="D20">
+        <v>20017</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="D21">
         <v>10017</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>17</v>
       </c>
     </row>
-    <row r="21" ht="12" customHeight="1" spans="1:5">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="D21">
+    <row r="22" ht="12" customHeight="1" spans="1:5">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="D22">
         <v>10018</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22">
-        <v>10019</v>
-      </c>
-      <c r="E22">
-        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>10020</v>
+        <v>10019</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>10021</v>
+        <v>10020</v>
       </c>
       <c r="E24">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>10022</v>
+        <v>10021</v>
       </c>
       <c r="E25">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>10023</v>
+        <v>10022</v>
       </c>
       <c r="E26">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="E27">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>10025</v>
+        <v>10024</v>
       </c>
       <c r="E28">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D29">
+        <v>10025</v>
+      </c>
+      <c r="E29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
         <v>10026</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="4:5">
-      <c r="D30">
+    <row r="31" spans="4:5">
+      <c r="D31">
         <v>10027</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>27</v>
       </c>
     </row>

--- a/gre/excel/task.xlsx
+++ b/gre/excel/task.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="task" sheetId="1" r:id="rId1"/>
+    <sheet name="description" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>模块</t>
   </si>
@@ -30,10 +30,28 @@
     <t>唯一Id</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>类型描述</t>
+    <t>类型1</t>
+  </si>
+  <si>
+    <t>类型2</t>
+  </si>
+  <si>
+    <t>任务描述</t>
+  </si>
+  <si>
+    <t>接取次数</t>
+  </si>
+  <si>
+    <t>完成条件</t>
+  </si>
+  <si>
+    <t>接取条件</t>
+  </si>
+  <si>
+    <t>提交类型</t>
+  </si>
+  <si>
+    <t>奖励</t>
   </si>
   <si>
     <t>module</t>
@@ -45,7 +63,28 @@
     <t>UniqueId</t>
   </si>
   <si>
-    <t>category</t>
+    <t>Category1</t>
+  </si>
+  <si>
+    <t>Category2</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ReceivedTimes</t>
+  </si>
+  <si>
+    <t>CompleteCondition</t>
+  </si>
+  <si>
+    <t>ReceivedCondition</t>
+  </si>
+  <si>
+    <t>SubmitCategory</t>
+  </si>
+  <si>
+    <t>Reward</t>
   </si>
   <si>
     <t>friend</t>
@@ -1031,19 +1070,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="60" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="25.875" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="24.25" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="20.25" customWidth="1"/>
+    <col min="12" max="12" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1062,180 +1109,219 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>10001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>10002</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>10003</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>10004</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>10005</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>10006</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>10007</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>10008</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>10009</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1243,13 +1329,13 @@
       <c r="D13">
         <v>10010</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1257,13 +1343,13 @@
       <c r="D14">
         <v>10011</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1271,13 +1357,13 @@
       <c r="D15">
         <v>10012</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1285,13 +1371,13 @@
       <c r="D16">
         <v>10013</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1299,13 +1385,13 @@
       <c r="D17">
         <v>10014</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1313,13 +1399,13 @@
       <c r="D18">
         <v>10015</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1327,13 +1413,13 @@
       <c r="D19">
         <v>10016</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1341,13 +1427,13 @@
       <c r="D20">
         <v>20017</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1355,13 +1441,13 @@
       <c r="D21">
         <v>10017</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>17</v>
       </c>
     </row>
-    <row r="22" ht="12" customHeight="1" spans="1:5">
+    <row r="22" ht="12" customHeight="1" spans="1:6">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1369,151 +1455,151 @@
       <c r="D22">
         <v>10018</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>10019</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D24">
         <v>10020</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D25">
         <v>10021</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D26">
         <v>10022</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <v>10023</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>10024</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D29">
         <v>10025</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D30">
         <v>10026</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="4:5">
+    <row r="31" spans="4:6">
       <c r="D31">
         <v>10027</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>27</v>
       </c>
     </row>
